--- a/テーブル定義書_乙方.xlsx
+++ b/テーブル定義書_乙方.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16600\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD2E0627-24FD-43E3-B9DF-ED6DD808AD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3380E7C2-CD05-4241-87A1-815352AA2F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{37709958-59D2-4B9C-8D0C-0A6D62C0CE1E}"/>
+    <workbookView xWindow="4192" yWindow="277" windowWidth="16200" windowHeight="12503" activeTab="1" xr2:uid="{BB1966BF-48E7-4E46-A18A-BB6E14B2AA2C}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="101">
   <si>
     <t>テーブル一覧</t>
   </si>
@@ -76,7 +76,7 @@
     <t>作成日</t>
   </si>
   <si>
-    <t>2023/11/16</t>
+    <t>2023/11/17</t>
   </si>
   <si>
     <t>更新日</t>
@@ -109,6 +109,9 @@
     <t>デフォルト</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -118,78 +121,114 @@
     <t>Yes (PK)</t>
   </si>
   <si>
+    <t>社名</t>
+  </si>
+  <si>
     <t>company_id</t>
   </si>
   <si>
-    <t>character varying</t>
+    <t>character varying(100)</t>
+  </si>
+  <si>
+    <t>住所</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>TEL</t>
+  </si>
+  <si>
+    <t>tel</t>
+  </si>
+  <si>
+    <t>FAX</t>
+  </si>
+  <si>
+    <t>fax</t>
+  </si>
+  <si>
+    <t>リビジョン番号</t>
+  </si>
+  <si>
+    <t>rev_no</t>
+  </si>
+  <si>
+    <t>作成日時</t>
+  </si>
+  <si>
+    <t>crt_date</t>
+  </si>
+  <si>
+    <t>timestamp(6) without time zone</t>
+  </si>
+  <si>
+    <t>作成者ID</t>
+  </si>
+  <si>
+    <t>crtprsn_id</t>
+  </si>
+  <si>
+    <t>character(20)</t>
+  </si>
+  <si>
+    <t>更新日時</t>
+  </si>
+  <si>
+    <t>upd_date</t>
+  </si>
+  <si>
+    <t>更新者ID</t>
+  </si>
+  <si>
+    <t>updprsn_id</t>
+  </si>
+  <si>
+    <t>削除フラグ</t>
+  </si>
+  <si>
+    <t>del_flg</t>
+  </si>
+  <si>
+    <t>character(1)</t>
+  </si>
+  <si>
+    <t>削除日時</t>
+  </si>
+  <si>
+    <t>del_date</t>
+  </si>
+  <si>
+    <t>削除者ID</t>
+  </si>
+  <si>
+    <t>delprsn_id</t>
+  </si>
+  <si>
+    <t>インデックス情報</t>
+  </si>
+  <si>
+    <t>インデックス名</t>
+  </si>
+  <si>
+    <t>カラムリスト</t>
+  </si>
+  <si>
+    <t>主キー</t>
+  </si>
+  <si>
+    <t>ユニーク</t>
+  </si>
+  <si>
+    <t>オプション</t>
+  </si>
+  <si>
+    <t>party_b_pkey</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>tel</t>
-  </si>
-  <si>
-    <t>fax</t>
-  </si>
-  <si>
-    <t>rev_no</t>
-  </si>
-  <si>
-    <t>crt_date</t>
-  </si>
-  <si>
-    <t>timestamp(6) without time zone</t>
-  </si>
-  <si>
-    <t>crtprsn_id</t>
-  </si>
-  <si>
-    <t>character(20)</t>
-  </si>
-  <si>
-    <t>upd_date</t>
-  </si>
-  <si>
-    <t>updprsn_id</t>
-  </si>
-  <si>
-    <t>del_flg</t>
-  </si>
-  <si>
-    <t>character(1)</t>
-  </si>
-  <si>
-    <t>del_date</t>
-  </si>
-  <si>
-    <t>delprsn_id</t>
-  </si>
-  <si>
-    <t>インデックス情報</t>
-  </si>
-  <si>
-    <t>インデックス名</t>
-  </si>
-  <si>
-    <t>カラムリスト</t>
-  </si>
-  <si>
-    <t>主キー</t>
-  </si>
-  <si>
-    <t>ユニーク</t>
-  </si>
-  <si>
-    <t>オプション</t>
-  </si>
-  <si>
-    <t>party_b_pkey</t>
-  </si>
-  <si>
     <t>制約情報</t>
   </si>
   <si>
@@ -202,85 +241,13 @@
     <t>制約定義</t>
   </si>
   <si>
-    <t>2200_16538_10_not_null</t>
+    <t>2200_16599_1_not_null</t>
   </si>
   <si>
     <t>CHECK</t>
   </si>
   <si>
-    <t>updprsn_id IS NOT NULL</t>
-  </si>
-  <si>
-    <t>2200_16538_11_not_null</t>
-  </si>
-  <si>
-    <t>del_flg IS NOT NULL</t>
-  </si>
-  <si>
-    <t>2200_16538_12_not_null</t>
-  </si>
-  <si>
-    <t>del_date IS NOT NULL</t>
-  </si>
-  <si>
-    <t>2200_16538_13_not_null</t>
-  </si>
-  <si>
-    <t>delprsn_id IS NOT NULL</t>
-  </si>
-  <si>
-    <t>2200_16538_1_not_null</t>
-  </si>
-  <si>
     <t>id IS NOT NULL</t>
-  </si>
-  <si>
-    <t>2200_16538_2_not_null</t>
-  </si>
-  <si>
-    <t>company_id IS NOT NULL</t>
-  </si>
-  <si>
-    <t>2200_16538_3_not_null</t>
-  </si>
-  <si>
-    <t>address IS NOT NULL</t>
-  </si>
-  <si>
-    <t>2200_16538_4_not_null</t>
-  </si>
-  <si>
-    <t>tel IS NOT NULL</t>
-  </si>
-  <si>
-    <t>2200_16538_5_not_null</t>
-  </si>
-  <si>
-    <t>fax IS NOT NULL</t>
-  </si>
-  <si>
-    <t>2200_16538_6_not_null</t>
-  </si>
-  <si>
-    <t>rev_no IS NOT NULL</t>
-  </si>
-  <si>
-    <t>2200_16538_7_not_null</t>
-  </si>
-  <si>
-    <t>crt_date IS NOT NULL</t>
-  </si>
-  <si>
-    <t>2200_16538_8_not_null</t>
-  </si>
-  <si>
-    <t>crtprsn_id IS NOT NULL</t>
-  </si>
-  <si>
-    <t>2200_16538_9_not_null</t>
-  </si>
-  <si>
-    <t>upd_date IS NOT NULL</t>
   </si>
   <si>
     <t>PRIMARY KEY</t>
@@ -1250,6 +1217,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1257,36 +1254,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -1621,7 +1588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324EE036-C521-4D51-9487-D4C24C9F5DAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749B968E-01EA-45AA-9AAC-043D0FEC4C28}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1670,7 +1637,7 @@
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" location="'乙方'!A1" display="'乙方'!A1" xr:uid="{A40BAF4C-7D10-4300-BC3E-1CA44C9B3EF7}"/>
+    <hyperlink ref="C3" location="'乙方'!A1" display="'乙方'!A1" xr:uid="{A8DC005E-2590-4F86-B239-F11769890D70}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="88" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -1682,15 +1649,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30B6D8F-81A5-4EE4-AFA1-FE5890F7DC59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD5AFE7-77ED-4560-B386-66DF782B634F}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.65" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1846,16 +1811,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" s="41" t="s">
         <v>20</v>
@@ -1869,16 +1834,16 @@
         <v>2</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F15" s="43" t="s">
         <v>20</v>
@@ -1892,16 +1857,16 @@
         <v>3</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C16" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="36" t="s">
-        <v>31</v>
-      </c>
       <c r="E16" s="36" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F16" s="43" t="s">
         <v>20</v>
@@ -1915,16 +1880,16 @@
         <v>4</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F17" s="43" t="s">
         <v>20</v>
@@ -1938,16 +1903,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F18" s="43" t="s">
         <v>20</v>
@@ -1961,16 +1926,16 @@
         <v>6</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F19" s="43" t="s">
         <v>20</v>
@@ -1984,16 +1949,16 @@
         <v>7</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F20" s="43" t="s">
         <v>20</v>
@@ -2007,16 +1972,16 @@
         <v>8</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F21" s="43" t="s">
         <v>20</v>
@@ -2030,16 +1995,16 @@
         <v>9</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F22" s="43" t="s">
         <v>20</v>
@@ -2053,16 +2018,16 @@
         <v>10</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F23" s="43" t="s">
         <v>20</v>
@@ -2076,16 +2041,16 @@
         <v>11</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F24" s="43" t="s">
         <v>20</v>
@@ -2099,16 +2064,16 @@
         <v>12</v>
       </c>
       <c r="B25" s="36" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F25" s="43" t="s">
         <v>20</v>
@@ -2122,16 +2087,16 @@
         <v>13</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F26" s="45" t="s">
         <v>20</v>
@@ -2142,7 +2107,7 @@
     </row>
     <row r="28" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
@@ -2150,20 +2115,20 @@
         <v>1</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C29" s="47" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D29" s="48"/>
       <c r="E29" s="30" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="F29" s="30" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G29" s="40" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
@@ -2171,23 +2136,23 @@
         <v>1</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C30" s="49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D30" s="50"/>
       <c r="E30" s="33" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="F30" s="33" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="G30" s="34"/>
     </row>
     <row r="32" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
@@ -2195,13 +2160,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D33" s="47" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E33" s="51"/>
       <c r="F33" s="51"/>
@@ -2212,489 +2177,273 @@
         <v>1</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D34" s="53" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="E34" s="54"/>
       <c r="F34" s="54"/>
       <c r="G34" s="55"/>
     </row>
-    <row r="35" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A35" s="35">
+    <row r="35" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="3">
         <v>2</v>
       </c>
-      <c r="B35" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>59</v>
+      <c r="B35" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>74</v>
       </c>
       <c r="D35" s="56" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="E35" s="57"/>
       <c r="F35" s="57"/>
       <c r="G35" s="58"/>
     </row>
-    <row r="36" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A36" s="35">
+    <row r="37" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" s="62"/>
+      <c r="E38" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" s="64"/>
+      <c r="G38" s="65" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="62"/>
+      <c r="E41" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" s="64"/>
+      <c r="G41" s="65" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="62"/>
+      <c r="E44" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="F44" s="64"/>
+      <c r="G44" s="65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A47" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="48"/>
+      <c r="D47" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="52"/>
+    </row>
+    <row r="48" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A48" s="69">
+        <v>1</v>
+      </c>
+      <c r="B48" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="70"/>
+      <c r="D48" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="55"/>
+    </row>
+    <row r="49" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A49" s="71">
+        <v>2</v>
+      </c>
+      <c r="B49" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="72"/>
+      <c r="D49" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="68"/>
+    </row>
+    <row r="50" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A50" s="71">
         <v>3</v>
       </c>
-      <c r="B36" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="58"/>
-    </row>
-    <row r="37" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A37" s="35">
+      <c r="B50" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="72"/>
+      <c r="D50" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="68"/>
+    </row>
+    <row r="51" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A51" s="71">
         <v>4</v>
       </c>
-      <c r="B37" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D37" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="58"/>
-    </row>
-    <row r="38" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A38" s="35">
+      <c r="B51" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="72"/>
+      <c r="D51" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
+      <c r="G51" s="68"/>
+    </row>
+    <row r="52" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A52" s="71">
         <v>5</v>
       </c>
-      <c r="B38" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D38" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="58"/>
-    </row>
-    <row r="39" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A39" s="35">
+      <c r="B52" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="72"/>
+      <c r="D52" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="68"/>
+    </row>
+    <row r="53" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A53" s="71">
         <v>6</v>
       </c>
-      <c r="B39" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="58"/>
-    </row>
-    <row r="40" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A40" s="35">
+      <c r="B53" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="72"/>
+      <c r="D53" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="68"/>
+    </row>
+    <row r="54" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A54" s="71">
         <v>7</v>
       </c>
-      <c r="B40" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="58"/>
-    </row>
-    <row r="41" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A41" s="35">
+      <c r="B54" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" s="72"/>
+      <c r="D54" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="68"/>
+    </row>
+    <row r="55" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="73">
         <v>8</v>
       </c>
-      <c r="B41" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="58"/>
-    </row>
-    <row r="42" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A42" s="35">
-        <v>9</v>
-      </c>
-      <c r="B42" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C42" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="58"/>
-    </row>
-    <row r="43" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A43" s="35">
-        <v>10</v>
-      </c>
-      <c r="B43" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="58"/>
-    </row>
-    <row r="44" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A44" s="35">
-        <v>11</v>
-      </c>
-      <c r="B44" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="58"/>
-    </row>
-    <row r="45" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A45" s="35">
-        <v>12</v>
-      </c>
-      <c r="B45" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C45" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D45" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="58"/>
-    </row>
-    <row r="46" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A46" s="35">
-        <v>13</v>
-      </c>
-      <c r="B46" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D46" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="58"/>
-    </row>
-    <row r="47" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="3">
-        <v>14</v>
-      </c>
-      <c r="B47" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="D47" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="61"/>
-    </row>
-    <row r="49" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="B50" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="C50" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="D50" s="65"/>
-      <c r="E50" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="F50" s="67"/>
-      <c r="G50" s="68" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="B53" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="C53" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="D53" s="65"/>
-      <c r="E53" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="F53" s="67"/>
-      <c r="G53" s="68" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="B56" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="C56" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="D56" s="65"/>
-      <c r="E56" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="F56" s="67"/>
-      <c r="G56" s="68" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="12" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="2" t="s">
+      <c r="B55" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" s="74"/>
+      <c r="D55" s="56" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A59" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B59" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C59" s="48"/>
-      <c r="D59" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="E59" s="51"/>
-      <c r="F59" s="51"/>
-      <c r="G59" s="52"/>
-    </row>
-    <row r="60" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A60" s="69">
-        <v>1</v>
-      </c>
-      <c r="B60" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="C60" s="70"/>
-      <c r="D60" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="54"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="55"/>
-    </row>
-    <row r="61" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A61" s="71">
-        <v>2</v>
-      </c>
-      <c r="B61" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="C61" s="72"/>
-      <c r="D61" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="57"/>
-      <c r="F61" s="57"/>
-      <c r="G61" s="58"/>
-    </row>
-    <row r="62" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A62" s="71">
-        <v>3</v>
-      </c>
-      <c r="B62" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="C62" s="72"/>
-      <c r="D62" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="E62" s="57"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="58"/>
-    </row>
-    <row r="63" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A63" s="71">
-        <v>4</v>
-      </c>
-      <c r="B63" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="C63" s="72"/>
-      <c r="D63" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="E63" s="57"/>
-      <c r="F63" s="57"/>
-      <c r="G63" s="58"/>
-    </row>
-    <row r="64" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A64" s="71">
-        <v>5</v>
-      </c>
-      <c r="B64" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="C64" s="72"/>
-      <c r="D64" s="56" t="s">
-        <v>107</v>
-      </c>
-      <c r="E64" s="57"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="58"/>
-    </row>
-    <row r="65" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A65" s="71">
-        <v>6</v>
-      </c>
-      <c r="B65" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="C65" s="72"/>
-      <c r="D65" s="56" t="s">
-        <v>109</v>
-      </c>
-      <c r="E65" s="57"/>
-      <c r="F65" s="57"/>
-      <c r="G65" s="58"/>
-    </row>
-    <row r="66" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A66" s="71">
-        <v>7</v>
-      </c>
-      <c r="B66" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="C66" s="72"/>
-      <c r="D66" s="56" t="s">
-        <v>109</v>
-      </c>
-      <c r="E66" s="57"/>
-      <c r="F66" s="57"/>
-      <c r="G66" s="58"/>
-    </row>
-    <row r="67" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="73">
-        <v>8</v>
-      </c>
-      <c r="B67" s="59" t="s">
-        <v>111</v>
-      </c>
-      <c r="C67" s="74"/>
-      <c r="D67" s="59" t="s">
-        <v>109</v>
-      </c>
-      <c r="E67" s="60"/>
-      <c r="F67" s="60"/>
-      <c r="G67" s="61"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="58"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D42:G42"/>
+  <mergeCells count="34">
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="D34:G34"/>
     <mergeCell ref="D35:G35"/>
-    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="E38:F38"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
